--- a/data/processed/data_desc.xlsx
+++ b/data/processed/data_desc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzhartlieb/Documents/SignalIduna/if_license_plates_could_talk/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzhartlieb/Documents/SignalIduna/if_license_plates_could_talk/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FF77AE-B6BB-7D49-8B92-D8631E4CD240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF44F8E-7898-0B4D-B1A5-8A62F20E6FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" xr2:uid="{1CB04E16-8E2C-7E47-9C6E-230C3E746D82}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>2013-2020</t>
   </si>
   <si>
-    <t>2000-2018</t>
-  </si>
-  <si>
     <t>Tsd Euro</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Kfz-Kennzeichen</t>
+  </si>
+  <si>
+    <t>2003-2018</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835F16C8-7440-424E-8B0E-6799D8A0C52A}">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,13 +611,13 @@
     <row r="2" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>2</v>
@@ -637,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -688,10 +688,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -708,10 +708,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
